--- a/data/trans_orig/P50A_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P50A_2-Clase-trans_orig.xlsx
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4206</v>
+        <v>4734</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002152809207369905</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.00966415380845069</v>
+        <v>0.01087550365404535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6416</v>
+        <v>4702</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001254834308084757</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008591762597405005</v>
+        <v>0.006297232503471117</v>
       </c>
     </row>
     <row r="6">
@@ -852,19 +852,19 @@
         <v>3275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9541</v>
+        <v>9568</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007523710395519837</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002169815383649658</v>
+        <v>0.00220756254231333</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02192114718193132</v>
+        <v>0.02198258365603099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6598</v>
+        <v>6792</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006098031306300276</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02118491762493268</v>
+        <v>0.02180646045266156</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -894,19 +894,19 @@
         <v>5174</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1892</v>
+        <v>1932</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12108</v>
+        <v>12047</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006929034363769243</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002534001837430857</v>
+        <v>0.002587016080945114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01621443526013012</v>
+        <v>0.0161334656132168</v>
       </c>
     </row>
     <row r="7">
@@ -923,19 +923,19 @@
         <v>431039</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>425309</v>
+        <v>424816</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>434287</v>
+        <v>434174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9903234803971103</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9771569449064339</v>
+        <v>0.9760256276249665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9977847206589148</v>
+        <v>0.9975247563031296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>278</v>
@@ -944,7 +944,7 @@
         <v>309572</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>304873</v>
+        <v>304679</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>311471</v>
@@ -953,7 +953,7 @@
         <v>0.9939019686936997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9788150823750674</v>
+        <v>0.9781935395473385</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -965,19 +965,19 @@
         <v>740611</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>732891</v>
+        <v>734191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>743924</v>
+        <v>744255</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9918161313281459</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.981478179788268</v>
+        <v>0.9832181868233731</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9962535796100672</v>
+        <v>0.9966959693841827</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4790</v>
+        <v>4610</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002174083559365434</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01161000670966244</v>
+        <v>0.01117350683069178</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4556</v>
+        <v>4514</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001206620112213212</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006129120062079661</v>
+        <v>0.006071878452293562</v>
       </c>
     </row>
     <row r="10">
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5314</v>
+        <v>5188</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002497408799069129</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01288067235341408</v>
+        <v>0.01257381651933884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6417</v>
+        <v>7208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006159749112464687</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01939823325613857</v>
+        <v>0.02178998240994889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1221,19 +1221,19 @@
         <v>3068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8170</v>
+        <v>8343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004127143943782881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001326224349934207</v>
+        <v>0.001328937747001115</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01099014907111342</v>
+        <v>0.01122340220131541</v>
       </c>
     </row>
     <row r="12">
@@ -1250,7 +1250,7 @@
         <v>410646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>405279</v>
+        <v>406069</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>412573</v>
@@ -1259,7 +1259,7 @@
         <v>0.9953285076415654</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9823212405670514</v>
+        <v>0.9842350653041045</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>328762</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>324383</v>
+        <v>323592</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>330800</v>
@@ -1280,7 +1280,7 @@
         <v>0.9938402508875354</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9806017667438585</v>
+        <v>0.978210017590051</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1292,19 +1292,19 @@
         <v>739408</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>733595</v>
+        <v>733475</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>742364</v>
+        <v>742353</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9946662359440039</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9868463375854222</v>
+        <v>0.986685584148017</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9986420549988769</v>
+        <v>0.9986282404167863</v>
       </c>
     </row>
     <row r="13">
@@ -1490,19 +1490,19 @@
         <v>5512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1820</v>
+        <v>1934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13862</v>
+        <v>13834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008885117457155034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002933993889449925</v>
+        <v>0.003117511998876878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0223459765455644</v>
+        <v>0.02230133252528302</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1524,19 +1524,19 @@
         <v>5512</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1681</v>
+        <v>1912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12678</v>
+        <v>13929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006319911675466233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001927868148415976</v>
+        <v>0.002192750938120328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01453759913555518</v>
+        <v>0.01597213546271498</v>
       </c>
     </row>
     <row r="17">
@@ -1553,19 +1553,19 @@
         <v>614804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>606454</v>
+        <v>606482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>618496</v>
+        <v>618382</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.991114882542845</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9776540234544357</v>
+        <v>0.977698667474717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9970660061105501</v>
+        <v>0.9968824880011231</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>236</v>
@@ -1587,19 +1587,19 @@
         <v>866585</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>859419</v>
+        <v>858168</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>870416</v>
+        <v>870185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9936800883245338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9854624008644456</v>
+        <v>0.9840278645372845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9980721318515841</v>
+        <v>0.9978072490618797</v>
       </c>
     </row>
     <row r="18">
@@ -1691,19 +1691,19 @@
         <v>3125</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8769</v>
+        <v>9417</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00275066260404461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0008007004471683165</v>
+        <v>0.00079907889302128</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.007717562445674188</v>
+        <v>0.00828813891554177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1728,16 +1728,16 @@
         <v>910</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8942</v>
+        <v>8870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001660161882831163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004832744133021489</v>
+        <v>0.0004834315200031419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004749850309259311</v>
+        <v>0.004711704441318409</v>
       </c>
     </row>
     <row r="20">
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5544</v>
+        <v>6268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001499105645534298</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004879384892124637</v>
+        <v>0.005516716285318968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5416</v>
+        <v>5520</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0009047849225105049</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.002876956191266619</v>
+        <v>0.002931882018359247</v>
       </c>
     </row>
     <row r="21">
@@ -1817,19 +1817,19 @@
         <v>11738</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5510</v>
+        <v>5743</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22252</v>
+        <v>22534</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01033056850244691</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004848947816359818</v>
+        <v>0.005054711236125313</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01958352837812381</v>
+        <v>0.01983178289720969</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11207</v>
+        <v>10382</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002500487847348812</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01501487372476847</v>
+        <v>0.0139099953064704</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -1859,19 +1859,19 @@
         <v>13604</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6897</v>
+        <v>6643</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>24961</v>
+        <v>25907</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007226331512789031</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003663606160534688</v>
+        <v>0.0035283681664861</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01325861036011831</v>
+        <v>0.0137609512740692</v>
       </c>
     </row>
     <row r="22">
@@ -1888,19 +1888,19 @@
         <v>1119688</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1107393</v>
+        <v>1106893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1126885</v>
+        <v>1126688</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9854196632479741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9745993759730245</v>
+        <v>0.9741592015411166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9917535337310738</v>
+        <v>0.9915798454183429</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>691</v>
@@ -1909,7 +1909,7 @@
         <v>744499</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>735158</v>
+        <v>735983</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>746365</v>
@@ -1918,7 +1918,7 @@
         <v>0.9974995121526512</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9849851262752315</v>
+        <v>0.9860900046935294</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1930,19 +1930,19 @@
         <v>1864186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1852248</v>
+        <v>1851926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1871817</v>
+        <v>1872222</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9902087216818694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.983867831466989</v>
+        <v>0.9836968444286229</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9942623785175162</v>
+        <v>0.9944772898911008</v>
       </c>
     </row>
     <row r="23">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4651</v>
+        <v>4670</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001864444932431993</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.009419471139876139</v>
+        <v>0.009457981702178073</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5383</v>
+        <v>4604</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007564523690100783</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.004423229202179983</v>
+        <v>0.003783193494183147</v>
       </c>
     </row>
     <row r="25">
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6079</v>
+        <v>6815</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004015197461692678</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01231060225248988</v>
+        <v>0.0138020057387159</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7123</v>
+        <v>6766</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001629066956661894</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00585293494780383</v>
+        <v>0.005559374639567467</v>
       </c>
     </row>
     <row r="26">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6977</v>
+        <v>7328</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004152983119363952</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01412976900960102</v>
+        <v>0.01484084366155622</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2181,19 +2181,19 @@
         <v>4047</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1005</v>
+        <v>1035</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9131</v>
+        <v>10514</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005595945038733825</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00138950696150829</v>
+        <v>0.001431054359398855</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01262495516586993</v>
+        <v>0.01453753125615678</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2202,19 +2202,19 @@
         <v>6098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2223</v>
+        <v>2046</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12278</v>
+        <v>11988</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005010498966655488</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001826796177545641</v>
+        <v>0.001681454755949149</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01008848898090076</v>
+        <v>0.009850126518437185</v>
       </c>
     </row>
     <row r="27">
@@ -2231,19 +2231,19 @@
         <v>488829</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>483394</v>
+        <v>482810</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>491972</v>
+        <v>491950</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9899673744865114</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9789600833819675</v>
+        <v>0.977776803128135</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9963329466278716</v>
+        <v>0.9962872721547623</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>664</v>
@@ -2252,19 +2252,19 @@
         <v>719208</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>714124</v>
+        <v>712741</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>722250</v>
+        <v>722220</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9944040549612662</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9873750448341301</v>
+        <v>0.9854624687438427</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9986104930384917</v>
+        <v>0.9985689456406012</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1130</v>
@@ -2273,19 +2273,19 @@
         <v>1208037</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1200598</v>
+        <v>1200761</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1212860</v>
+        <v>1212834</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9926039817076725</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9864914051136512</v>
+        <v>0.986625411931958</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9965667250637062</v>
+        <v>0.9965459472382926</v>
       </c>
     </row>
     <row r="28">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6836</v>
+        <v>6749</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001871262720226426</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006604342367946491</v>
+        <v>0.006520777622078876</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5882</v>
+        <v>6755</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001502085711922103</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004561870295903941</v>
+        <v>0.005238884336930094</v>
       </c>
     </row>
     <row r="31">
@@ -2487,19 +2487,19 @@
         <v>4824</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1812</v>
+        <v>1882</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10583</v>
+        <v>11860</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01896271911724901</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007123371562553199</v>
+        <v>0.007399517083077589</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04160265181509805</v>
+        <v>0.04662282768325479</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2508,19 +2508,19 @@
         <v>4974</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10954</v>
+        <v>11884</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004805680342702757</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001874061347227703</v>
+        <v>0.001861901848858013</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01058281721458418</v>
+        <v>0.01148173421236828</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2529,19 +2529,19 @@
         <v>9798</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4966</v>
+        <v>4896</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18072</v>
+        <v>16836</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.007598689130160929</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003851081360490752</v>
+        <v>0.00379704229023871</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0140154340407619</v>
+        <v>0.0130569718388384</v>
       </c>
     </row>
     <row r="32">
@@ -2558,19 +2558,19 @@
         <v>249565</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>243806</v>
+        <v>242529</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>252577</v>
+        <v>252507</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.981037280882751</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.958397348184902</v>
+        <v>0.9533771723167455</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9928766284374468</v>
+        <v>0.9926004829169225</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>968</v>
@@ -2579,19 +2579,19 @@
         <v>1028132</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1021102</v>
+        <v>1021242</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1032135</v>
+        <v>1032127</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9933230569370708</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9865310238286918</v>
+        <v>0.9866666551194153</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.997190594478765</v>
+        <v>0.9971827406212189</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1216</v>
@@ -2600,19 +2600,19 @@
         <v>1277697</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1268352</v>
+        <v>1270142</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1282639</v>
+        <v>1283320</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.990899225157917</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9836515282419573</v>
+        <v>0.9850396475562294</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9947321593385804</v>
+        <v>0.9952602137360093</v>
       </c>
     </row>
     <row r="33">
@@ -2704,19 +2704,19 @@
         <v>4943</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1815</v>
+        <v>1845</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11727</v>
+        <v>10996</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001474408541045138</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0005414502558154426</v>
+        <v>0.0005501834362117011</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.003497821367078564</v>
+        <v>0.003279789535837055</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2738,19 +2738,19 @@
         <v>4943</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1822</v>
+        <v>1931</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10399</v>
+        <v>11488</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0007321651439010549</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0002698765634108782</v>
+        <v>0.0002859867152687388</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001540281982975859</v>
+        <v>0.001701544718734793</v>
       </c>
     </row>
     <row r="35">
@@ -2767,19 +2767,19 @@
         <v>4623</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1016</v>
+        <v>1681</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9487</v>
+        <v>10944</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001378947702007933</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0003029332897822274</v>
+        <v>0.0005013640393471767</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.002829714070318822</v>
+        <v>0.003264335441616106</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6714</v>
+        <v>6376</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0005698733162460722</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.001975409305170978</v>
+        <v>0.001876028595806176</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2809,19 +2809,19 @@
         <v>6560</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2668</v>
+        <v>2798</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12796</v>
+        <v>12427</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0009716453133467421</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0003951460407273164</v>
+        <v>0.0004143697363894044</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.001895295622460275</v>
+        <v>0.001840721068361934</v>
       </c>
     </row>
     <row r="36">
@@ -2838,19 +2838,19 @@
         <v>28429</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18180</v>
+        <v>18107</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>42664</v>
+        <v>41605</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008479885000396179</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005422829841994658</v>
+        <v>0.005400888256559363</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01272569500426528</v>
+        <v>0.01240994585806638</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -2859,19 +2859,19 @@
         <v>14825</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8139</v>
+        <v>8732</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24919</v>
+        <v>24586</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.004361842514451183</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002394644827327264</v>
+        <v>0.00256933840808975</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.007331903794089112</v>
+        <v>0.007234021204273578</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>39</v>
@@ -2880,19 +2880,19 @@
         <v>43254</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28951</v>
+        <v>30311</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>57561</v>
+        <v>58591</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006406789410360593</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004288258842900006</v>
+        <v>0.004489727172896971</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.008525902980147397</v>
+        <v>0.008678487774638557</v>
       </c>
     </row>
     <row r="37">
@@ -2909,19 +2909,19 @@
         <v>3314572</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3297832</v>
+        <v>3299761</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3325925</v>
+        <v>3325407</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9886667587565507</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9836737666540623</v>
+        <v>0.9842492331810387</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9920531401031519</v>
+        <v>0.9918987113551013</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3134</v>
@@ -2930,19 +2930,19 @@
         <v>3381954</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3372035</v>
+        <v>3371506</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3388925</v>
+        <v>3388835</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9950682841693027</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9921500223965628</v>
+        <v>0.9919942031306463</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9971194917324528</v>
+        <v>0.9970929854791907</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6241</v>
@@ -2951,19 +2951,19 @@
         <v>6696524</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6680904</v>
+        <v>6680032</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6712992</v>
+        <v>6710838</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9918894001323916</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9895757941082394</v>
+        <v>0.9894466347028688</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9943286759328834</v>
+        <v>0.994009520031197</v>
       </c>
     </row>
     <row r="38">
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7343</v>
+        <v>6884</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005282493207673717</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01971677106954513</v>
+        <v>0.01848411657126141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5841</v>
+        <v>6553</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005050001036820289</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01587251895573745</v>
+        <v>0.0178081412605223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -3696,19 +3696,19 @@
         <v>3826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8604</v>
+        <v>8763</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005166943585376116</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001257200551076447</v>
+        <v>0.001255751598125964</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01162053345686718</v>
+        <v>0.01183525600612675</v>
       </c>
     </row>
     <row r="12">
@@ -3725,7 +3725,7 @@
         <v>370471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>365095</v>
+        <v>365554</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>372438</v>
@@ -3734,7 +3734,7 @@
         <v>0.9947175067923263</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9802832289304567</v>
+        <v>0.9815158834287392</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>366144</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>362161</v>
+        <v>361449</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>368002</v>
@@ -3755,7 +3755,7 @@
         <v>0.9949499989631797</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9841274810442641</v>
+        <v>0.9821918587394778</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3767,19 +3767,19 @@
         <v>736615</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>731837</v>
+        <v>731678</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>739510</v>
+        <v>739511</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9948330564146239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9883794665431328</v>
+        <v>0.9881647439938732</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9987427994489235</v>
+        <v>0.998744248401874</v>
       </c>
     </row>
     <row r="13">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6119</v>
+        <v>5098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006200602091308328</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03772302177728925</v>
+        <v>0.03143145734673217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5496</v>
+        <v>6056</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001506078263559951</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008230546049077652</v>
+        <v>0.009067891847346174</v>
       </c>
     </row>
     <row r="15">
@@ -3981,19 +3981,19 @@
         <v>6169</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2320</v>
+        <v>2148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15371</v>
+        <v>15303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01220117374000934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004588770582891944</v>
+        <v>0.004248345725604843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03040273873556362</v>
+        <v>0.03026813742178606</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5933</v>
+        <v>4916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006071059369260222</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03657517143365658</v>
+        <v>0.03031010653199708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4023,19 +4023,19 @@
         <v>7154</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2854</v>
+        <v>3055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14672</v>
+        <v>15157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01071221639829196</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004273912149707454</v>
+        <v>0.004574154293185877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02197040822169577</v>
+        <v>0.02269775301790138</v>
       </c>
     </row>
     <row r="17">
@@ -4052,19 +4052,19 @@
         <v>499424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>490222</v>
+        <v>490290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503273</v>
+        <v>503445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9877988262599906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9695972612644349</v>
+        <v>0.9697318625782139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9954112294171075</v>
+        <v>0.9957516542743949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -4073,7 +4073,7 @@
         <v>160212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154976</v>
+        <v>155469</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>162202</v>
@@ -4082,7 +4082,7 @@
         <v>0.9877283385394314</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9554501801812436</v>
+        <v>0.958488632468429</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4094,19 +4094,19 @@
         <v>659637</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>652282</v>
+        <v>651315</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>664661</v>
+        <v>663808</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9877817053381481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9767686006825812</v>
+        <v>0.975319649852502</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9953052664741026</v>
+        <v>0.9940284168405176</v>
       </c>
     </row>
     <row r="18">
@@ -4292,19 +4292,19 @@
         <v>6345</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2982</v>
+        <v>2144</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13229</v>
+        <v>12864</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005638452841535418</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002649975348247935</v>
+        <v>0.001904921859077749</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01175610659734734</v>
+        <v>0.01143168823125079</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7346</v>
+        <v>7192</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002541515943551275</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009301737511206514</v>
+        <v>0.009107064941988405</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -4334,19 +4334,19 @@
         <v>8352</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3295</v>
+        <v>4173</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15825</v>
+        <v>16298</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004361292524508269</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001720694077283028</v>
+        <v>0.002178930850017251</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008263647423720457</v>
+        <v>0.008510440541707661</v>
       </c>
     </row>
     <row r="22">
@@ -4363,19 +4363,19 @@
         <v>1118939</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1112055</v>
+        <v>1112420</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1122302</v>
+        <v>1123140</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9943615471584646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9882438934026524</v>
+        <v>0.9885683117687496</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.997350024651752</v>
+        <v>0.9980950781409224</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>763</v>
@@ -4384,7 +4384,7 @@
         <v>787743</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>782404</v>
+        <v>782558</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>789750</v>
@@ -4393,7 +4393,7 @@
         <v>0.9974584840564488</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9906982624887934</v>
+        <v>0.9908929350580116</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4405,19 +4405,19 @@
         <v>1906682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1899209</v>
+        <v>1898736</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1911739</v>
+        <v>1910861</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9956387074754918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9917363525762793</v>
+        <v>0.9914895594582923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9982793059227167</v>
+        <v>0.9978210691499828</v>
       </c>
     </row>
     <row r="23">
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6190</v>
+        <v>6558</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.001515979112109697</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.008651019262032499</v>
+        <v>0.009164285003574999</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6529</v>
+        <v>6506</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0008263680261179818</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.004973788078766714</v>
+        <v>0.004956548768948823</v>
       </c>
     </row>
     <row r="25">
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6589</v>
+        <v>7420</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003527266073629907</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01103375546828143</v>
+        <v>0.01242525491625052</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4637</v>
+        <v>4943</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001291624603019923</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.006479692189144624</v>
+        <v>0.00690770939842081</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -4614,19 +4614,19 @@
         <v>3030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8354</v>
+        <v>8167</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002308606387346716</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0007032711539577586</v>
+        <v>0.0007010851769127497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006363997005755674</v>
+        <v>0.006221684234804615</v>
       </c>
     </row>
     <row r="26">
@@ -4643,19 +4643,19 @@
         <v>6815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3175</v>
+        <v>3169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>14450</v>
+        <v>14758</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01141350519022644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005316901623429455</v>
+        <v>0.005306954806282911</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02419856249182337</v>
+        <v>0.02471497080751736</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8480</v>
+        <v>8304</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00317989242619713</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0118508741726027</v>
+        <v>0.0116043659445956</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -4685,19 +4685,19 @@
         <v>9091</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4342</v>
+        <v>3586</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17018</v>
+        <v>17805</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006925320443299414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003307483581114198</v>
+        <v>0.002731647165731998</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01296444975763171</v>
+        <v>0.0135636725726477</v>
       </c>
     </row>
     <row r="27">
@@ -4714,19 +4714,19 @@
         <v>588214</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>579246</v>
+        <v>579400</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>592848</v>
+        <v>592863</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9850592287361436</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9700403942247522</v>
+        <v>0.970298487315771</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9928189033136736</v>
+        <v>0.9928447604286297</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>674</v>
@@ -4735,19 +4735,19 @@
         <v>711270</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>705457</v>
+        <v>703675</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>714291</v>
+        <v>714289</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9940125038586732</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9858897953284892</v>
+        <v>0.9833995736061049</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9982345353271609</v>
+        <v>0.9982318379946464</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1239</v>
@@ -4756,19 +4756,19 @@
         <v>1299484</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1290661</v>
+        <v>1289367</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1305467</v>
+        <v>1305325</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9899397051432359</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9832183274164042</v>
+        <v>0.9822327823897272</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9944973015727485</v>
+        <v>0.9943894212398762</v>
       </c>
     </row>
     <row r="28">
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5770</v>
+        <v>5659</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00101833342944539</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.005674278024113723</v>
+        <v>0.005564520640883398</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5202</v>
+        <v>5189</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0007979418737659651</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.004008537868842713</v>
+        <v>0.003998522724874026</v>
       </c>
     </row>
     <row r="30">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7784</v>
+        <v>7716</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.007823557668030062</v>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02771420030918335</v>
+        <v>0.02747141513932531</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6254</v>
+        <v>6359</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001805859634433406</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.006149775204869939</v>
+        <v>0.006253508882257898</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -5012,19 +5012,19 @@
         <v>4034</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>993</v>
+        <v>1081</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9001</v>
+        <v>10129</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003108232504541082</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0007652267959896421</v>
+        <v>0.0008328719523274323</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.006936028554361497</v>
+        <v>0.007805263192350257</v>
       </c>
     </row>
     <row r="32">
@@ -5041,7 +5041,7 @@
         <v>278672</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>273085</v>
+        <v>273153</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>280869</v>
@@ -5050,7 +5050,7 @@
         <v>0.9921764423319699</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9722857996908166</v>
+        <v>0.9725285848606747</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5062,19 +5062,19 @@
         <v>1014032</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1009114</v>
+        <v>1008834</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1016066</v>
+        <v>1016070</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9971758069361212</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.992339154066724</v>
+        <v>0.9920637059473102</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9991763153073058</v>
+        <v>0.9991801078712833</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1195</v>
@@ -5083,19 +5083,19 @@
         <v>1292704</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1286642</v>
+        <v>1286533</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1296100</v>
+        <v>1295859</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9960938256216929</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9914229970772029</v>
+        <v>0.9913387352848679</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9987106951210702</v>
+        <v>0.9985250088368542</v>
       </c>
     </row>
     <row r="33">
@@ -5200,19 +5200,19 @@
         <v>3126</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8459</v>
+        <v>7447</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0009198733383866259</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0002952923023057131</v>
+        <v>0.0002952776381617218</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.002489148635468019</v>
+        <v>0.002191285857780792</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -5221,19 +5221,19 @@
         <v>3126</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8372</v>
+        <v>9535</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0004662435283688173</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0001495477512813925</v>
+        <v>0.0001500485679740731</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001248675899965946</v>
+        <v>0.001422112603699611</v>
       </c>
     </row>
     <row r="35">
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7109</v>
+        <v>7401</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0006370194155271973</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.002150011655521326</v>
+        <v>0.002238449779435784</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5293</v>
+        <v>4628</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0002719623574680972</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.001557492798139843</v>
+        <v>0.001361791042822737</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -5292,19 +5292,19 @@
         <v>3030</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>924</v>
+        <v>533</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8485</v>
+        <v>8035</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0004519879729332202</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0001378813897550045</v>
+        <v>7.944027098893638e-05</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.001265516702893299</v>
+        <v>0.001198348977836907</v>
       </c>
     </row>
     <row r="36">
@@ -5321,19 +5321,19 @@
         <v>23494</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14229</v>
+        <v>14881</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>36140</v>
+        <v>35616</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.007105530106196445</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.00430333130136851</v>
+        <v>0.004500529464011875</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01093028863746932</v>
+        <v>0.01077165410216052</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -5342,19 +5342,19 @@
         <v>8962</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4689</v>
+        <v>3994</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16639</v>
+        <v>16046</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.002637175720046532</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001379837933615834</v>
+        <v>0.001175189273977904</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.004896098835089256</v>
+        <v>0.004721641694103925</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>30</v>
@@ -5363,19 +5363,19 @@
         <v>32456</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22726</v>
+        <v>21263</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>46634</v>
+        <v>44560</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.004840716867175073</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003389533205273646</v>
+        <v>0.003171244172387061</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.006955375476544574</v>
+        <v>0.006645989128989612</v>
       </c>
     </row>
     <row r="37">
@@ -5392,19 +5392,19 @@
         <v>3280825</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3267192</v>
+        <v>3267841</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3290027</v>
+        <v>3289677</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9922574504782764</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9881344516334888</v>
+        <v>0.9883306420845952</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9950406980472213</v>
+        <v>0.9949346873483893</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3193</v>
@@ -5413,19 +5413,19 @@
         <v>3385353</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3376936</v>
+        <v>3376551</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3390924</v>
+        <v>3391371</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9961709885840987</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9936942495685943</v>
+        <v>0.9935811254186033</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9978105537485996</v>
+        <v>0.9979419141342227</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6314</v>
@@ -5434,19 +5434,19 @@
         <v>6666177</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6651386</v>
+        <v>6652894</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6677096</v>
+        <v>6678823</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9942410516315229</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9920348839677872</v>
+        <v>0.99225989956242</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.995869542068498</v>
+        <v>0.996127048934452</v>
       </c>
     </row>
     <row r="38">
